--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1538846.05665143</v>
+        <v>1643025.691102501</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>167.5442597171374</v>
+        <v>75.45713216103701</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>90.06486366348004</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,16 +873,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>165.0737364348675</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>94.00928821139618</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>129.4714269367848</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>42.01201317445309</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.96411613815231</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>246.6857009458075</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>242.8528437613056</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>130.2397676503613</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>97.23161317180987</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.3852063573447</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>185.4048731212365</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419834152</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336588</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>25.73194049497408</v>
       </c>
       <c r="S19" t="n">
-        <v>149.8873540667205</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>145.0891016767042</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2369,7 +2371,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176565</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>104.4262124629297</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>104.8913819999787</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,13 +3003,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>38.21875275158355</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>111.3213230702139</v>
+        <v>170.9457618790575</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027318</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>1.79977260571659</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>108.0275736005886</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>261.5505590167101</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>137.9792024346631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.170539913434</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866152</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2862.546497866152</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2472.40716589034</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.7277411117484</v>
+        <v>2118.856246515616</v>
       </c>
       <c r="C4" t="n">
-        <v>310.7277411117484</v>
+        <v>2027.881636754526</v>
       </c>
       <c r="D4" t="n">
-        <v>310.7277411117484</v>
+        <v>1877.76499734219</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>1729.851903759797</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>1729.851903759797</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U4" t="n">
-        <v>1257.270443328366</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="V4" t="n">
-        <v>1002.585955122479</v>
+        <v>2567.638376557164</v>
       </c>
       <c r="W4" t="n">
-        <v>713.1687850855183</v>
+        <v>2567.638376557164</v>
       </c>
       <c r="X4" t="n">
-        <v>713.1687850855183</v>
+        <v>2339.648825659146</v>
       </c>
       <c r="Y4" t="n">
-        <v>492.3762059419881</v>
+        <v>2118.856246515616</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,19 +4564,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4586,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3084.535934008201</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2731.767278738087</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2731.767278738087</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>331.5406302391191</v>
+        <v>423.5412774992668</v>
       </c>
       <c r="C7" t="n">
-        <v>331.5406302391191</v>
+        <v>423.5412774992668</v>
       </c>
       <c r="D7" t="n">
-        <v>331.5406302391191</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y7" t="n">
-        <v>331.5406302391191</v>
+        <v>423.5412774992668</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308159</v>
+        <v>1867.116698829639</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367747</v>
+        <v>1867.116698829639</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760997</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.384423162752</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>651.398518373145</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609172</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609172</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.140063348093</v>
+        <v>2257.25603080545</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.000731372281</v>
+        <v>1867.116698829639</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031464</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215812</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992583</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.1078027362229</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="C10" t="n">
-        <v>460.171619808316</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4957,55 +4959,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791191</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1514.222885813897</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1514.222885813897</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.53839760801</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W10" t="n">
-        <v>1259.53839760801</v>
+        <v>1003.777100914008</v>
       </c>
       <c r="X10" t="n">
-        <v>1031.548846709993</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="Y10" t="n">
-        <v>810.7562675664626</v>
+        <v>775.7875500159902</v>
       </c>
     </row>
     <row r="11">
@@ -5036,7 +5038,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5045,10 +5047,10 @@
         <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5072,7 +5074,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5121,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.7594328861248</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>390.823249958218</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>240.7066105458823</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5233,16 +5235,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,37 +5266,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5303,13 +5305,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5358,19 +5360,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400746</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121677</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>194.800778399832</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797189</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5458,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611862</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138445</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703144</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.955532171245</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433381</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.971224494428</v>
       </c>
       <c r="S19" t="n">
-        <v>2228.516012088501</v>
+        <v>2238.116390149333</v>
       </c>
       <c r="T19" t="n">
-        <v>2008.914547111442</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U19" t="n">
-        <v>1719.83932045564</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V19" t="n">
-        <v>1465.154832249753</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1175.737662212792</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>947.7481113147751</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>726.955532171245</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5744,13 +5746,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5759,13 +5761,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>175.9033664000583</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1245.221808421813</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6011,10 +6013,10 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6163,34 +6165,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6312,10 +6314,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
         <v>2516.421633107662</v>
@@ -6361,25 +6363,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,19 +6475,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>2418.621364762389</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961526</v>
+        <v>2913.946970978147</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>3511.325458604699</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>4138.923422159306</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6649,22 +6651,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075798</v>
@@ -6722,25 +6724,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>2715.159942084667</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921476</v>
+        <v>3210.485548300426</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>3807.864035926978</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>4435.461999481585</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3047.734188001555</v>
+        <v>2804.652647788941</v>
       </c>
       <c r="C34" t="n">
-        <v>2878.798005073648</v>
+        <v>2635.716464861034</v>
       </c>
       <c r="D34" t="n">
-        <v>2728.681365661313</v>
+        <v>2485.599825448699</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661313</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T34" t="n">
-        <v>4511.341667771992</v>
+        <v>4268.260127559378</v>
       </c>
       <c r="U34" t="n">
-        <v>4222.26644111619</v>
+        <v>3979.184900903576</v>
       </c>
       <c r="V34" t="n">
-        <v>3967.581952910303</v>
+        <v>3724.500412697689</v>
       </c>
       <c r="W34" t="n">
-        <v>3678.164782873342</v>
+        <v>3435.083242660729</v>
       </c>
       <c r="X34" t="n">
-        <v>3450.175231975325</v>
+        <v>3207.093691762711</v>
       </c>
       <c r="Y34" t="n">
-        <v>3229.382652831795</v>
+        <v>2986.301112619181</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,28 +6925,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6962,13 +6964,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7117,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7171,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7248,25 +7250,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7354,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>814.372855255613</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7600,19 +7602,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="44">
@@ -7637,58 +7639,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192511</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
         <v>2516.421633107662</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7828,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9407,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.44677382459261</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>40.30478226780068</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844822765</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>40.64330621514758</v>
       </c>
       <c r="S19" t="n">
-        <v>31.13893193492407</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>34.74287850523305</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405032</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>114.158440889165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>62.35543909864917</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24889,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>213.9188905722444</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>106.0841272570744</v>
+        <v>46.45968844823076</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405073</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>117.6820817884486</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>24.63391537253409</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054555</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>114.1584408891649</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>898230.3070642162</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>898230.3070642162</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
@@ -26329,31 +26331,31 @@
         <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="N2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="N2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="O2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="P2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314471</v>
+        <v>90354.06702314487</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179352</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179352</v>
@@ -26442,7 +26444,7 @@
         <v>11167.03225179352</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179352</v>
@@ -26451,10 +26453,10 @@
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="O4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11167.03225179352</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179352</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-993355.6029003465</v>
+        <v>-993355.6029003463</v>
       </c>
       <c r="C6" t="n">
-        <v>335389.1428272459</v>
+        <v>335389.1428272461</v>
       </c>
       <c r="D6" t="n">
         <v>335389.1428272462</v>
       </c>
       <c r="E6" t="n">
-        <v>86943.26591544843</v>
+        <v>86943.26591544753</v>
       </c>
       <c r="F6" t="n">
         <v>412355.7277228032</v>
@@ -26537,31 +26539,31 @@
         <v>412355.7277228032</v>
       </c>
       <c r="H6" t="n">
-        <v>412355.7277228037</v>
+        <v>412355.7277228032</v>
       </c>
       <c r="I6" t="n">
-        <v>412355.7277228033</v>
+        <v>412355.7277228032</v>
       </c>
       <c r="J6" t="n">
         <v>194824.5253255258</v>
       </c>
       <c r="K6" t="n">
-        <v>412355.7277228034</v>
+        <v>412355.7277228032</v>
       </c>
       <c r="L6" t="n">
-        <v>412355.7277228034</v>
+        <v>412355.7277228033</v>
       </c>
       <c r="M6" t="n">
         <v>327300.6997872913</v>
       </c>
       <c r="N6" t="n">
-        <v>412355.7277228034</v>
+        <v>412355.7277228032</v>
       </c>
       <c r="O6" t="n">
+        <v>412355.7277228031</v>
+      </c>
+      <c r="P6" t="n">
         <v>412355.7277228032</v>
-      </c>
-      <c r="P6" t="n">
-        <v>412355.7277228034</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,22 +26804,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099649</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>215.1895819463432</v>
+        <v>307.2767095024436</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>77.18195743514779</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27591,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>121.1381017707454</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>271.2636035596114</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>198.2808315333501</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27777,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>106.6034598437593</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.6205372139425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>107.9973406748755</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>168.0688818921479</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>89.30918162580787</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>189.2913851647811</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29089,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29235,7 +29237,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353141</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31850,19 +31852,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510275</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32078,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647493</v>
+        <v>210.3948924365565</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
@@ -32093,7 +32095,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32315,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772183</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32330,13 +32332,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,10 +32800,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32956,7 +32958,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460029</v>
@@ -33032,13 +33034,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>409.0029787211719</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33202,7 +33204,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043726</v>
@@ -33257,13 +33259,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>175.605272155109</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33275,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33500,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33512,10 +33514,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786837</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,13 +33733,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>209.2370040367366</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33746,7 +33748,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>602.8420149078237</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
@@ -33755,7 +33757,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663277</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -33968,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,16 +33982,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N39" t="n">
-        <v>748.8168776781358</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34211,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>246.9596973201444</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,16 +34225,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34457,13 +34459,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>558.3177848342784</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882195</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609551</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306628</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35498,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366973</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>477.985332142731</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
@@ -35741,7 +35743,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
@@ -35963,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.7540807028593151</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35980,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36531,7 +36533,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066292</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36604,7 +36606,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
@@ -36680,13 +36682,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>266.8689447991536</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>37.76383318075003</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36923,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>556.4534171013642</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>73.1808046631526</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,10 +37162,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342392</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>71.39556506237764</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>471.5003028244903</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
@@ -37403,7 +37405,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789214</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,16 +37630,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N39" t="n">
-        <v>617.4751655948025</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37859,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>108.4053175402702</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37873,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38105,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>426.9760727509451</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1643025.691102501</v>
+        <v>1639013.081088508</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103701</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>94.81275980261439</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>90.06486366348004</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>13.42874471570741</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>94.00928821139618</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>136.0870494265619</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>42.01201317445309</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>138.6444210303391</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>62.45439117602597</v>
       </c>
       <c r="D8" t="n">
-        <v>246.6857009458075</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>97.23161317180987</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>185.4048731212365</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>25.73194049497408</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>145.0891016767042</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.9726497471651</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176565</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>18.7084378797731</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>3.453391420151112</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>19.91555826189102</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>190.58191301778</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>170.9457618790575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.82863813027318</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.632620083626639</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>108.0275736005886</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.5505590167101</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>123.9815576456783</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4348,19 +4348,19 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4369,13 +4369,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2118.856246515616</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>2027.881636754526</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>1877.76499734219</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>1729.851903759797</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1729.851903759797</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134516</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1913.730159486768</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193525</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.322864763051</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U4" t="n">
-        <v>2822.322864763051</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V4" t="n">
-        <v>2567.638376557164</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W4" t="n">
-        <v>2567.638376557164</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>2339.648825659146</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>2118.856246515616</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1685.375546116517</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180639</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>423.5412774992668</v>
+        <v>820.4128495803448</v>
       </c>
       <c r="C7" t="n">
-        <v>423.5412774992668</v>
+        <v>651.4766666524379</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>501.3600272401021</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>353.446933657709</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>206.5569861597986</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4725,16 +4725,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658018</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W7" t="n">
-        <v>872.3234075408143</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="X7" t="n">
-        <v>644.3338566427969</v>
+        <v>1222.853893554115</v>
       </c>
       <c r="Y7" t="n">
-        <v>423.5412774992668</v>
+        <v>1002.061314410584</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1867.116698829639</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C8" t="n">
-        <v>1867.116698829639</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.72178906653</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.72178906653</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2257.25603080545</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y8" t="n">
-        <v>1867.116698829639</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.7875500159902</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
         <v>477.7578170212613</v>
@@ -4959,19 +4959,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.67533979849</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592603</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1003.777100914008</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>775.7875500159902</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>775.7875500159902</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854707</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,25 +5266,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5296,28 +5296,28 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2420.971224494428</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2238.116390149333</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1466.014387565343</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y22" t="n">
-        <v>1245.221808421813</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="23">
@@ -5983,13 +5983,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6007,16 +6007,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6080,7 +6080,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400758</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121689</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121689</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121689</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121689</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487572</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510513</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854711</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648824</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611863</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138456</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703155</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998291</v>
+        <v>559.3040775751642</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000582</v>
+        <v>411.3909839927711</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000582</v>
+        <v>264.5010364948607</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>97.30493720974067</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,13 +6475,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2418.621364762389</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2913.946970978147</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3511.325458604699</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>4138.923422159306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474266</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>113.9333885650335</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>113.9333885650335</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084667</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>3210.485548300426</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3807.864035926978</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>4435.461999481585</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2804.652647788941</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>2635.716464861034</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>2485.599825448699</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866305</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866305</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866305</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4268.260127559378</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3979.184900903576</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3724.500412697689</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3435.083242660729</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3207.093691762711</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>2986.301112619181</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,43 +6925,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>315.9123021921476</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2445.313972384678</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2262.459138039582</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>2042.857673062523</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1753.782446406721</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630049</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>632.7243904253733</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.165434399143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>814.372855255613</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7505,13 +7505,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>538.7363435406111</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1713.268596655246</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1458.584108449359</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1169.166938412398</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>941.1773875143809</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>720.3848083708508</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192511</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7742,13 +7742,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>365.9405071576786</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>219.0505596597682</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>219.0505596597682</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>40.30478226780068</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>40.64330621514758</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.74287850523305</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405032</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>127.7255247667961</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>136.8413214260728</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>28.00274033431481</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>46.45968844823076</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>64.74262662649505</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>117.6820817884486</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.63391537253409</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>16.31315520054555</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>898230.3070642162</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>898230.3070642162</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>898230.3070642162</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>898230.3070642162</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="G2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="H2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="I2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="J2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="K2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="L2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314485</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314487</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26432,34 +26432,34 @@
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-993355.6029003463</v>
+        <v>-993355.6029003465</v>
       </c>
       <c r="C6" t="n">
         <v>335389.1428272461</v>
       </c>
       <c r="D6" t="n">
-        <v>335389.1428272462</v>
+        <v>335389.1428272461</v>
       </c>
       <c r="E6" t="n">
-        <v>86943.26591544753</v>
+        <v>86595.88666109114</v>
       </c>
       <c r="F6" t="n">
-        <v>412355.7277228032</v>
+        <v>412008.3484684463</v>
       </c>
       <c r="G6" t="n">
-        <v>412355.7277228032</v>
+        <v>412008.3484684465</v>
       </c>
       <c r="H6" t="n">
-        <v>412355.7277228032</v>
+        <v>412008.3484684463</v>
       </c>
       <c r="I6" t="n">
-        <v>412355.7277228032</v>
+        <v>412008.3484684463</v>
       </c>
       <c r="J6" t="n">
-        <v>194824.5253255258</v>
+        <v>194477.1460711689</v>
       </c>
       <c r="K6" t="n">
-        <v>412355.7277228032</v>
+        <v>412008.3484684463</v>
       </c>
       <c r="L6" t="n">
-        <v>412355.7277228033</v>
+        <v>412008.3484684462</v>
       </c>
       <c r="M6" t="n">
-        <v>327300.6997872913</v>
+        <v>326953.3205329344</v>
       </c>
       <c r="N6" t="n">
-        <v>412355.7277228032</v>
+        <v>412008.3484684462</v>
       </c>
       <c r="O6" t="n">
-        <v>412355.7277228031</v>
+        <v>412008.3484684462</v>
       </c>
       <c r="P6" t="n">
-        <v>412355.7277228032</v>
+        <v>412008.3484684463</v>
       </c>
     </row>
   </sheetData>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,19 +26819,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973556</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973562</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024436</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>270.4601319683932</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>77.18195743514779</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>75.50340795433992</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>271.2636035596114</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>213.1539192908511</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>106.6034598437593</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>27.38138722868916</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>302.8185005949816</v>
       </c>
       <c r="D8" t="n">
-        <v>107.9973406748755</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>189.2913851647811</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29237,7 +29237,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>210.3948924365565</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>409.0029787211719</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.605272155109</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786837</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>209.2370040367366</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>68.26085851453816</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066292</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>266.8689447991536</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075003</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342392</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>71.39556506237764</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>237.2862717533515</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1639013.081088508</v>
+        <v>1640773.611391294</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>94.81275980261439</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>75.45713216103589</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>13.42874471570741</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>157.7822070347161</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>223.4096551115049</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>136.0870494265619</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.817218682479</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380546</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>138.6444210303391</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>62.45439117602597</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>99.59933623926882</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>48.47457675531665</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>11.81332727248861</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>180.9726497471651</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>81.54417886827348</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>3.453391420151112</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>190.58191301778</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>41.33703994142957</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.632620083626639</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>80.08971311158706</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2071.975386180638</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4351,7 +4351,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
         <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180638</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1913.730159486768</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1722.044275313594</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1722.044275313594</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="U4" t="n">
-        <v>1722.044275313594</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V4" t="n">
-        <v>1722.044275313594</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2185.04550437017</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1816.082987429758</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1457.817288823008</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="W5" t="n">
-        <v>2824.323010322666</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2571.645344434292</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811102</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999832</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387319</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332764</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601614</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927795</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064709</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>820.4128495803448</v>
+        <v>463.6594280995023</v>
       </c>
       <c r="C7" t="n">
-        <v>651.4766666524379</v>
+        <v>294.7232451715954</v>
       </c>
       <c r="D7" t="n">
-        <v>501.3600272401021</v>
+        <v>144.6066057592597</v>
       </c>
       <c r="E7" t="n">
-        <v>353.446933657709</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F7" t="n">
-        <v>206.5569861597986</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658019</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V7" t="n">
-        <v>1450.843444452132</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W7" t="n">
-        <v>1450.843444452132</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>1222.853893554115</v>
+        <v>866.1004720732722</v>
       </c>
       <c r="Y7" t="n">
-        <v>1002.061314410584</v>
+        <v>645.307892929742</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.236214140706</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204828</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5032,13 +5032,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5050,10 +5050,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>451.6888124356582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,31 +5272,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,19 +5305,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5366,10 +5366,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5518,16 +5518,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.0424953278208</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>187.8360202106528</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>187.8360202106528</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>961.4835393015907</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>740.6909601580605</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>878.3568999154069</v>
+        <v>1030.918378293891</v>
       </c>
       <c r="C28" t="n">
-        <v>709.4207169875</v>
+        <v>861.9821953659841</v>
       </c>
       <c r="D28" t="n">
-        <v>559.3040775751642</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>411.3909839927711</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>264.5010364948607</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>97.30493720974067</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>1212.566843124131</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>951.777212765616</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6928,19 +6928,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>868.6673633290469</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>699.73118040114</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2445.313972384678</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2262.459138039582</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2042.857673062523</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1753.782446406721</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1499.097958200834</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1499.097958200834</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1271.108407302817</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1050.315828159287</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.6461798836013</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>565.7099969556945</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-8.832474487678859e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>96.94647126761458</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>117.6820817884491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>128.4813855737353</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>44.73700564187209</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>67.07129414993888</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>136.8413214260728</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>129.6605885985412</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>28.00274033431481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>107.2784330767828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>64.74262662649505</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>68.5257599066253</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>913514.9942559213</v>
+        <v>913514.9942559212</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642161</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>898230.3070642162</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>898230.3070642162</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>898230.3070642162</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
   </sheetData>
@@ -26316,40 +26316,40 @@
         <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="F2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="F2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="G2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="H2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.2897985041</v>
       </c>
-      <c r="H2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="J2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985042</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
         <v>524645.2897985039</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.048561002335191e-09</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.34074832405895e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314485</v>
+        <v>90354.06702314489</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314469</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-993355.6029003465</v>
+        <v>-993355.6029003462</v>
       </c>
       <c r="C6" t="n">
-        <v>335389.1428272461</v>
+        <v>335389.1428272455</v>
       </c>
       <c r="D6" t="n">
-        <v>335389.1428272461</v>
+        <v>335389.1428272467</v>
       </c>
       <c r="E6" t="n">
-        <v>86595.88666109114</v>
+        <v>86908.52799001255</v>
       </c>
       <c r="F6" t="n">
-        <v>412008.3484684463</v>
+        <v>412320.9897973678</v>
       </c>
       <c r="G6" t="n">
-        <v>412008.3484684465</v>
+        <v>412320.9897973672</v>
       </c>
       <c r="H6" t="n">
-        <v>412008.3484684463</v>
+        <v>412320.9897973675</v>
       </c>
       <c r="I6" t="n">
-        <v>412008.3484684463</v>
+        <v>412320.9897973677</v>
       </c>
       <c r="J6" t="n">
-        <v>194477.1460711689</v>
+        <v>194789.7874000902</v>
       </c>
       <c r="K6" t="n">
-        <v>412008.3484684463</v>
+        <v>412320.9897973674</v>
       </c>
       <c r="L6" t="n">
-        <v>412008.3484684462</v>
+        <v>412320.9897973676</v>
       </c>
       <c r="M6" t="n">
-        <v>326953.3205329344</v>
+        <v>327265.961861856</v>
       </c>
       <c r="N6" t="n">
-        <v>412008.3484684462</v>
+        <v>412320.9897973676</v>
       </c>
       <c r="O6" t="n">
-        <v>412008.3484684462</v>
+        <v>412320.9897973675</v>
       </c>
       <c r="P6" t="n">
-        <v>412008.3484684463</v>
+        <v>412320.9897973676</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>270.4601319683932</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>306.4732379112259</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>75.50340795433992</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>61.7667422414531</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>158.5207149607569</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>213.1539192908511</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>69.12041821276371</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>27.38138722868916</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>302.8185005949816</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>307.2767095024426</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -33022,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33201,7 +33201,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33669,7 +33669,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33900,13 +33900,13 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37548,13 +37548,13 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
